--- a/hockey/draft/scratch.xlsx
+++ b/hockey/draft/scratch.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="460" windowWidth="43820" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="draft" sheetId="1" r:id="rId1"/>
-    <sheet name="my_team" sheetId="3" r:id="rId2"/>
-    <sheet name="results" sheetId="2" r:id="rId3"/>
+    <sheet name="trade" sheetId="4" r:id="rId2"/>
+    <sheet name="my_team" sheetId="3" r:id="rId3"/>
+    <sheet name="results" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="309">
   <si>
     <t>score</t>
   </si>
@@ -993,7 +994,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1010,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1055,17 +1068,592 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1077,13 +1665,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V251" totalsRowShown="0">
-  <autoFilter ref="A1:V251">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="o"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V251"/>
   <sortState ref="A2:V251">
     <sortCondition ref="E1:E251"/>
   </sortState>
@@ -1094,7 +1676,7 @@
     <tableColumn id="4" name="adp"/>
     <tableColumn id="5" name="my_rank"/>
     <tableColumn id="22" name="pick"/>
-    <tableColumn id="6" name="name"/>
+    <tableColumn id="6" name="name" dataDxfId="33"/>
     <tableColumn id="7" name="position"/>
     <tableColumn id="8" name="multi"/>
     <tableColumn id="9" name="position_rank"/>
@@ -1112,6 +1694,59 @@
     <tableColumn id="21" name="shutouts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O11" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:O11"/>
+  <sortState ref="A2:O11">
+    <sortCondition descending="1" ref="D1:D11"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Rank" dataDxfId="30"/>
+    <tableColumn id="2" name="Team" dataDxfId="29"/>
+    <tableColumn id="3" name="G" dataDxfId="28"/>
+    <tableColumn id="4" name="A" dataDxfId="27"/>
+    <tableColumn id="5" name="+/-" dataDxfId="26"/>
+    <tableColumn id="6" name="PPP" dataDxfId="25"/>
+    <tableColumn id="7" name="SOG" dataDxfId="24"/>
+    <tableColumn id="8" name="HIT" dataDxfId="23"/>
+    <tableColumn id="9" name="BLK" dataDxfId="22"/>
+    <tableColumn id="10" name="W" dataDxfId="21"/>
+    <tableColumn id="11" name="GAA" dataDxfId="20"/>
+    <tableColumn id="12" name="SV" dataDxfId="19"/>
+    <tableColumn id="13" name="SV%" dataDxfId="18"/>
+    <tableColumn id="14" name="SHO" dataDxfId="17"/>
+    <tableColumn id="15" name="Total" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A14:N24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A14:N24"/>
+  <sortState ref="A15:N24">
+    <sortCondition ref="A14:A24"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Rank" dataDxfId="13"/>
+    <tableColumn id="2" name="Team" dataDxfId="12"/>
+    <tableColumn id="3" name="G" dataDxfId="11"/>
+    <tableColumn id="4" name="A" dataDxfId="10"/>
+    <tableColumn id="5" name="+/-" dataDxfId="9"/>
+    <tableColumn id="6" name="PPP" dataDxfId="8"/>
+    <tableColumn id="7" name="SOG" dataDxfId="7"/>
+    <tableColumn id="8" name="HIT" dataDxfId="6"/>
+    <tableColumn id="9" name="BLK" dataDxfId="5"/>
+    <tableColumn id="10" name="W" dataDxfId="4"/>
+    <tableColumn id="11" name="GAA" dataDxfId="3"/>
+    <tableColumn id="12" name="SV" dataDxfId="2"/>
+    <tableColumn id="13" name="SV%" dataDxfId="1"/>
+    <tableColumn id="14" name="SHO" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1404,15 +2039,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V251"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V119" sqref="B1:V119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22" style="14" customWidth="1"/>
     <col min="11" max="22" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1435,7 +2070,7 @@
       <c r="F1" t="s">
         <v>282</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -1484,7 +2119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1503,7 +2138,7 @@
       <c r="F2" t="s">
         <v>283</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
@@ -1550,7 +2185,7 @@
       <c r="F3" t="s">
         <v>284</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
@@ -1578,7 +2213,7 @@
         <v>0.82811411224301357</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.94028579815990243</v>
       </c>
@@ -1597,7 +2232,7 @@
       <c r="F4" t="s">
         <v>283</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
@@ -1644,7 +2279,7 @@
       <c r="F5" t="s">
         <v>284</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
@@ -1672,7 +2307,7 @@
         <v>0.9360604808227404</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.92675406123736659</v>
       </c>
@@ -1691,7 +2326,7 @@
       <c r="F6" t="s">
         <v>283</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
@@ -1719,7 +2354,7 @@
         <v>0.83520547952197366</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.92654572308032923</v>
       </c>
@@ -1738,7 +2373,7 @@
       <c r="F7" t="s">
         <v>283</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H7" t="s">
@@ -1766,7 +2401,7 @@
         <v>0.81787102617340446</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.90791785636501443</v>
       </c>
@@ -1785,7 +2420,7 @@
       <c r="F8" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
@@ -1819,7 +2454,7 @@
         <v>9.8991464458920431E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.89862891248789434</v>
       </c>
@@ -1838,7 +2473,7 @@
       <c r="F9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H9" t="s">
@@ -1866,7 +2501,7 @@
         <v>0.66107301633861892</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.8909210155295415</v>
       </c>
@@ -1885,7 +2520,7 @@
       <c r="F10" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H10" t="s">
@@ -1919,7 +2554,7 @@
         <v>0.75408203808412921</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.88960344722451323</v>
       </c>
@@ -1938,7 +2573,7 @@
       <c r="F11" t="s">
         <v>283</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
@@ -1972,7 +2607,7 @@
         <v>0.87927712548805792</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.88300410778741023</v>
       </c>
@@ -1991,7 +2626,7 @@
       <c r="F12" t="s">
         <v>283</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="19" t="s">
         <v>31</v>
       </c>
       <c r="H12" t="s">
@@ -2025,7 +2660,7 @@
         <v>0.63179846434075682</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.87906042828068742</v>
       </c>
@@ -2044,7 +2679,7 @@
       <c r="F13" t="s">
         <v>283</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H13" t="s">
@@ -2074,7 +2709,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.87795566793571811</v>
+        <v>0.877955667935718</v>
       </c>
       <c r="B14">
         <v>4.8</v>
@@ -2091,7 +2726,7 @@
       <c r="F14" t="s">
         <v>284</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
@@ -2125,7 +2760,7 @@
         <v>0.54736456818461887</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.87450102235656513</v>
       </c>
@@ -2144,7 +2779,7 @@
       <c r="F15" t="s">
         <v>283</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H15" t="s">
@@ -2197,7 +2832,7 @@
       <c r="F16" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H16" t="s">
@@ -2231,7 +2866,7 @@
         <v>0.27950531141342239</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.87175773677095414</v>
       </c>
@@ -2250,7 +2885,7 @@
       <c r="F17" t="s">
         <v>283</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H17" t="s">
@@ -2278,7 +2913,7 @@
         <v>0.79108141645288843</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.87169998887583933</v>
       </c>
@@ -2297,7 +2932,7 @@
       <c r="F18" t="s">
         <v>283</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H18" t="s">
@@ -2331,7 +2966,7 @@
         <v>5.8230273211129661E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.87113003798091215</v>
       </c>
@@ -2350,7 +2985,7 @@
       <c r="F19" t="s">
         <v>283</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="19" t="s">
         <v>38</v>
       </c>
       <c r="H19" t="s">
@@ -2384,7 +3019,7 @@
         <v>0.74825901076301626</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.86215606568236458</v>
       </c>
@@ -2403,7 +3038,7 @@
       <c r="F20" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H20" t="s">
@@ -2437,7 +3072,7 @@
         <v>0.1193720600828158</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.86051674531518962</v>
       </c>
@@ -2456,7 +3091,7 @@
       <c r="F21" t="s">
         <v>283</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H21" t="s">
@@ -2490,7 +3125,7 @@
         <v>0.62015240969853092</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.85846330114080949</v>
       </c>
@@ -2509,7 +3144,7 @@
       <c r="F22" t="s">
         <v>283</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="H22" t="s">
@@ -2543,7 +3178,7 @@
         <v>0.51533791791849759</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.85798458361762875</v>
       </c>
@@ -2562,7 +3197,7 @@
       <c r="F23" t="s">
         <v>283</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H23" t="s">
@@ -2596,7 +3231,7 @@
         <v>0.68420571023077359</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.85584444211534205</v>
       </c>
@@ -2606,7 +3241,7 @@
       <c r="F24" t="s">
         <v>283</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H24" t="s">
@@ -2640,7 +3275,7 @@
         <v>0.55901062282684477</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.85575979606227137</v>
       </c>
@@ -2659,7 +3294,7 @@
       <c r="F25" t="s">
         <v>283</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H25" t="s">
@@ -2693,7 +3328,7 @@
         <v>0.1717793059728325</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.85494019687944545</v>
       </c>
@@ -2712,7 +3347,7 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H26" t="s">
@@ -2746,7 +3381,7 @@
         <v>0.1193720600828158</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.85480568515545141</v>
       </c>
@@ -2765,7 +3400,7 @@
       <c r="F27" t="s">
         <v>283</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H27" t="s">
@@ -2793,7 +3428,7 @@
         <v>0.7107125872913399</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.85260126723662988</v>
       </c>
@@ -2812,7 +3447,7 @@
       <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H28" t="s">
@@ -2846,7 +3481,7 @@
         <v>0.50660337693682811</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.8520214131863979</v>
       </c>
@@ -2865,7 +3500,7 @@
       <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="14" t="s">
         <v>48</v>
       </c>
       <c r="H29" t="s">
@@ -2899,7 +3534,7 @@
         <v>0.11354903276170281</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.85011568033655882</v>
       </c>
@@ -2918,7 +3553,7 @@
       <c r="F30" t="s">
         <v>283</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="19" t="s">
         <v>49</v>
       </c>
       <c r="H30" t="s">
@@ -2971,7 +3606,7 @@
       <c r="F31" t="s">
         <v>284</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H31" t="s">
@@ -3005,7 +3640,7 @@
         <v>0.26494774311064001</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.84827176874273602</v>
       </c>
@@ -3024,7 +3659,7 @@
       <c r="F32" t="s">
         <v>283</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H32" t="s">
@@ -3052,7 +3687,7 @@
         <v>0.66264887573394327</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.84757191814045474</v>
       </c>
@@ -3071,7 +3706,7 @@
       <c r="F33" t="s">
         <v>283</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="14" t="s">
         <v>52</v>
       </c>
       <c r="H33" t="s">
@@ -3105,7 +3740,7 @@
         <v>0.1426641693672677</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.84595455667822939</v>
       </c>
@@ -3124,7 +3759,7 @@
       <c r="F34" t="s">
         <v>283</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="14" t="s">
         <v>53</v>
       </c>
       <c r="H34" t="s">
@@ -3177,7 +3812,7 @@
       <c r="F35" t="s">
         <v>284</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="14" t="s">
         <v>54</v>
       </c>
       <c r="H35" t="s">
@@ -3211,7 +3846,7 @@
         <v>0.11354903276170281</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.84511435756916753</v>
       </c>
@@ -3230,7 +3865,7 @@
       <c r="F36" t="s">
         <v>283</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H36" t="s">
@@ -3283,7 +3918,7 @@
       <c r="F37" t="s">
         <v>284</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="14" t="s">
         <v>56</v>
       </c>
       <c r="H37" t="s">
@@ -3317,7 +3952,7 @@
         <v>0.4163464534595771</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.84491248669598118</v>
       </c>
@@ -3336,7 +3971,7 @@
       <c r="F38" t="s">
         <v>283</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="19" t="s">
         <v>57</v>
       </c>
       <c r="H38" t="s">
@@ -3389,7 +4024,7 @@
       <c r="F39" t="s">
         <v>284</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H39" t="s">
@@ -3423,7 +4058,7 @@
         <v>0.93750739869918764</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.84294594730409367</v>
       </c>
@@ -3442,7 +4077,7 @@
       <c r="F40" t="s">
         <v>283</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H40" t="s">
@@ -3495,7 +4130,7 @@
       <c r="F41" t="s">
         <v>284</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H41" t="s">
@@ -3529,7 +4164,7 @@
         <v>0.69002873755188643</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.84158385801422486</v>
       </c>
@@ -3548,7 +4183,7 @@
       <c r="F42" t="s">
         <v>283</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="14" t="s">
         <v>61</v>
       </c>
       <c r="H42" t="s">
@@ -3576,7 +4211,7 @@
         <v>0.55438558804986737</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.84117660791968363</v>
       </c>
@@ -3595,7 +4230,7 @@
       <c r="F43" t="s">
         <v>283</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="19" t="s">
         <v>62</v>
       </c>
       <c r="H43" t="s">
@@ -3629,7 +4264,7 @@
         <v>0.34355861194566489</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.84083910395709571</v>
       </c>
@@ -3648,7 +4283,7 @@
       <c r="F44" t="s">
         <v>283</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H44" t="s">
@@ -3682,7 +4317,7 @@
         <v>0.69585176487299949</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.84083651470512411</v>
       </c>
@@ -3701,7 +4336,7 @@
       <c r="F45" t="s">
         <v>283</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H45" t="s">
@@ -3735,7 +4370,7 @@
         <v>2.6203622945008349E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.84024290074066799</v>
       </c>
@@ -3754,7 +4389,7 @@
       <c r="F46" t="s">
         <v>283</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="19" t="s">
         <v>65</v>
       </c>
       <c r="H46" t="s">
@@ -3788,7 +4423,7 @@
         <v>0.13101811472504171</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.84003509864477988</v>
       </c>
@@ -3807,7 +4442,7 @@
       <c r="F47" t="s">
         <v>283</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H47" t="s">
@@ -3841,7 +4476,7 @@
         <v>0.54154154086350581</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.83932173194084658</v>
       </c>
@@ -3860,7 +4495,7 @@
       <c r="F48" t="s">
         <v>283</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H48" t="s">
@@ -3894,7 +4529,7 @@
         <v>0.16886779231227611</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.8379192427740132</v>
       </c>
@@ -3913,7 +4548,7 @@
       <c r="F49" t="s">
         <v>283</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H49" t="s">
@@ -3947,7 +4582,7 @@
         <v>0.35229315292733449</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.83779476197982872</v>
       </c>
@@ -3966,7 +4601,7 @@
       <c r="F50" t="s">
         <v>283</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H50" t="s">
@@ -4000,7 +4635,7 @@
         <v>0.10190297811947691</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.83765885931754536</v>
       </c>
@@ -4019,7 +4654,7 @@
       <c r="F51" t="s">
         <v>283</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H51" t="s">
@@ -4053,7 +4688,7 @@
         <v>9.316843713780748E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.83730472147247514</v>
       </c>
@@ -4072,7 +4707,7 @@
       <c r="F52" t="s">
         <v>283</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H52" t="s">
@@ -4106,7 +4741,7 @@
         <v>0.10481449178003339</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.83608018019273767</v>
       </c>
@@ -4125,7 +4760,7 @@
       <c r="F53" t="s">
         <v>283</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="14" t="s">
         <v>72</v>
       </c>
       <c r="H53" t="s">
@@ -4159,7 +4794,7 @@
         <v>0.96953404896530881</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.83548737272156282</v>
       </c>
@@ -4178,7 +4813,7 @@
       <c r="F54" t="s">
         <v>283</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="15" t="s">
         <v>73</v>
       </c>
       <c r="H54" t="s">
@@ -4212,7 +4847,7 @@
         <v>3.2026650266121323E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.83546153494104436</v>
       </c>
@@ -4228,7 +4863,7 @@
       <c r="E55">
         <v>54</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H55" t="s">
@@ -4281,7 +4916,7 @@
       <c r="F56" t="s">
         <v>284</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="16" t="s">
         <v>75</v>
       </c>
       <c r="H56" t="s">
@@ -4315,7 +4950,7 @@
         <v>3.2026650266121323E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.83494229692818478</v>
       </c>
@@ -4334,7 +4969,7 @@
       <c r="F57" t="s">
         <v>283</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H57" t="s">
@@ -4368,7 +5003,7 @@
         <v>0.34355861194566489</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.83424491565258951</v>
       </c>
@@ -4387,7 +5022,7 @@
       <c r="F58" t="s">
         <v>283</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="15" t="s">
         <v>77</v>
       </c>
       <c r="H58" t="s">
@@ -4421,7 +5056,7 @@
         <v>0.84433896156138022</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.83296861072535555</v>
       </c>
@@ -4440,7 +5075,7 @@
       <c r="F59" t="s">
         <v>283</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="15" t="s">
         <v>78</v>
       </c>
       <c r="H59" t="s">
@@ -4474,7 +5109,7 @@
         <v>0.21545201088117971</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.83271532548460681</v>
       </c>
@@ -4493,7 +5128,7 @@
       <c r="F60" t="s">
         <v>283</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H60" t="s">
@@ -4527,7 +5162,7 @@
         <v>0.23583260650507509</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.8325825616449134</v>
       </c>
@@ -4546,7 +5181,7 @@
       <c r="F61" t="s">
         <v>283</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="15" t="s">
         <v>80</v>
       </c>
       <c r="H61" t="s">
@@ -4580,7 +5215,7 @@
         <v>0.1193720600828158</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.83195871871249905</v>
       </c>
@@ -4599,7 +5234,7 @@
       <c r="F62" t="s">
         <v>283</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H62" t="s">
@@ -4633,7 +5268,7 @@
         <v>0.12810660106448521</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.83158958344077005</v>
       </c>
@@ -4652,7 +5287,7 @@
       <c r="F63" t="s">
         <v>283</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="15" t="s">
         <v>82</v>
       </c>
       <c r="H63" t="s">
@@ -4705,7 +5340,7 @@
       <c r="F64" t="s">
         <v>284</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="16" t="s">
         <v>83</v>
       </c>
       <c r="H64" t="s">
@@ -4739,7 +5374,7 @@
         <v>0.20671746989951029</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.83029396029783809</v>
       </c>
@@ -4758,7 +5393,7 @@
       <c r="F65" t="s">
         <v>283</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="15" t="s">
         <v>84</v>
       </c>
       <c r="H65" t="s">
@@ -4792,7 +5427,7 @@
         <v>0.12810660106448521</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.83016078448264274</v>
       </c>
@@ -4811,7 +5446,7 @@
       <c r="F66" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="15" t="s">
         <v>85</v>
       </c>
       <c r="H66" t="s">
@@ -4845,7 +5480,7 @@
         <v>6.4053300532242619E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.82992182839035611</v>
       </c>
@@ -4855,7 +5490,7 @@
       <c r="F67" t="s">
         <v>283</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="18" t="s">
         <v>85</v>
       </c>
       <c r="H67" t="s">
@@ -4908,7 +5543,7 @@
       <c r="F68" t="s">
         <v>284</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H68" t="s">
@@ -4961,7 +5596,7 @@
       <c r="F69" t="s">
         <v>284</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="15" t="s">
         <v>87</v>
       </c>
       <c r="H69" t="s">
@@ -4995,7 +5630,7 @@
         <v>0.25621320212897047</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.82757893298140361</v>
       </c>
@@ -5005,7 +5640,7 @@
       <c r="F70" t="s">
         <v>283</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="15" t="s">
         <v>88</v>
       </c>
       <c r="H70" t="s">
@@ -5039,7 +5674,7 @@
         <v>0.50078034961571516</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.82746570126370445</v>
       </c>
@@ -5058,7 +5693,7 @@
       <c r="F71" t="s">
         <v>283</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="15" t="s">
         <v>89</v>
       </c>
       <c r="H71" t="s">
@@ -5092,7 +5727,7 @@
         <v>0.59977181407463565</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.82732463299391257</v>
       </c>
@@ -5111,7 +5746,7 @@
       <c r="F72" t="s">
         <v>283</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="15" t="s">
         <v>90</v>
       </c>
       <c r="H72" t="s">
@@ -5145,7 +5780,7 @@
         <v>0.34938163926677801</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.82710204337727689</v>
       </c>
@@ -5161,7 +5796,7 @@
       <c r="E73">
         <v>72</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="15" t="s">
         <v>91</v>
       </c>
       <c r="H73" t="s">
@@ -5195,7 +5830,7 @@
         <v>0.10481449178003339</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.82678637496429563</v>
       </c>
@@ -5214,7 +5849,7 @@
       <c r="F74" t="s">
         <v>283</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H74" t="s">
@@ -5248,7 +5883,7 @@
         <v>0.50369186327627158</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.82643830775823712</v>
       </c>
@@ -5267,7 +5902,7 @@
       <c r="F75" t="s">
         <v>283</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="15" t="s">
         <v>93</v>
       </c>
       <c r="H75" t="s">
@@ -5301,7 +5936,7 @@
         <v>0.23583260650507509</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.82612488907638537</v>
       </c>
@@ -5320,7 +5955,7 @@
       <c r="F76" t="s">
         <v>283</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="15" t="s">
         <v>94</v>
       </c>
       <c r="H76" t="s">
@@ -5354,7 +5989,7 @@
         <v>0.1077260054405899</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.82493333040787875</v>
       </c>
@@ -5373,7 +6008,7 @@
       <c r="F77" t="s">
         <v>283</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="15" t="s">
         <v>95</v>
       </c>
       <c r="H77" t="s">
@@ -5407,7 +6042,7 @@
         <v>0.14848719668838059</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.8248574725691149</v>
       </c>
@@ -5426,7 +6061,7 @@
       <c r="F78" t="s">
         <v>283</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="15" t="s">
         <v>96</v>
       </c>
       <c r="H78" t="s">
@@ -5460,14 +6095,14 @@
         <v>0.30279742069787419</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.82377612206985684</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H79" t="s">
@@ -5501,7 +6136,7 @@
         <v>0.70167479219411244</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.82315265788636593</v>
       </c>
@@ -5520,7 +6155,7 @@
       <c r="F80" t="s">
         <v>283</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="15" t="s">
         <v>98</v>
       </c>
       <c r="H80" t="s">
@@ -5548,7 +6183,7 @@
         <v>0.71150051698900219</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.82294463803906792</v>
       </c>
@@ -5567,7 +6202,7 @@
       <c r="F81" t="s">
         <v>283</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="15" t="s">
         <v>99</v>
       </c>
       <c r="H81" t="s">
@@ -5620,7 +6255,7 @@
       <c r="F82" t="s">
         <v>284</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="15" t="s">
         <v>100</v>
       </c>
       <c r="H82" t="s">
@@ -5654,7 +6289,7 @@
         <v>0.1077260054405899</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.8215235544761742</v>
       </c>
@@ -5673,7 +6308,7 @@
       <c r="F83" t="s">
         <v>283</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="15" t="s">
         <v>101</v>
       </c>
       <c r="H83" t="s">
@@ -5707,14 +6342,14 @@
         <v>0.4600191583679244</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.82125590848687779</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="15" t="s">
         <v>102</v>
       </c>
       <c r="H84" t="s">
@@ -5748,7 +6383,7 @@
         <v>0.30279742069787419</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.8209592163013637</v>
       </c>
@@ -5767,7 +6402,7 @@
       <c r="F85" t="s">
         <v>283</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="15" t="s">
         <v>103</v>
       </c>
       <c r="H85" t="s">
@@ -5801,7 +6436,7 @@
         <v>0.25330168846841411</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.8197946899119507</v>
       </c>
@@ -5817,7 +6452,7 @@
       <c r="E86">
         <v>85</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="15" t="s">
         <v>104</v>
       </c>
       <c r="H86" t="s">
@@ -5851,7 +6486,7 @@
         <v>0.66964814192799116</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.81929503373454438</v>
       </c>
@@ -5870,7 +6505,7 @@
       <c r="F87" t="s">
         <v>283</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="15" t="s">
         <v>105</v>
       </c>
       <c r="H87" t="s">
@@ -5904,7 +6539,7 @@
         <v>0.42508099444124647</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.8192296674931383</v>
       </c>
@@ -5920,7 +6555,7 @@
       <c r="E88">
         <v>87</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="15" t="s">
         <v>106</v>
       </c>
       <c r="H88" t="s">
@@ -5954,7 +6589,7 @@
         <v>0.18633687427561491</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.81857504733087572</v>
       </c>
@@ -5973,7 +6608,7 @@
       <c r="F89" t="s">
         <v>283</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="15" t="s">
         <v>107</v>
       </c>
       <c r="H89" t="s">
@@ -6007,7 +6642,7 @@
         <v>9.8991464458920431E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.81741764169401132</v>
       </c>
@@ -6026,7 +6661,7 @@
       <c r="F90" t="s">
         <v>283</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H90" t="s">
@@ -6054,7 +6689,7 @@
         <v>0.84623649528924516</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.81707749942876662</v>
       </c>
@@ -6073,7 +6708,7 @@
       <c r="F91" t="s">
         <v>283</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="15" t="s">
         <v>109</v>
       </c>
       <c r="H91" t="s">
@@ -6107,7 +6742,7 @@
         <v>0.20962898356006679</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.81687870537472029</v>
       </c>
@@ -6126,7 +6761,7 @@
       <c r="F92" t="s">
         <v>283</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="15" t="s">
         <v>110</v>
       </c>
       <c r="H92" t="s">
@@ -6160,7 +6795,7 @@
         <v>0.2300095791839622</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.81681253408455479</v>
       </c>
@@ -6179,7 +6814,7 @@
       <c r="F93" t="s">
         <v>283</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="15" t="s">
         <v>111</v>
       </c>
       <c r="H93" t="s">
@@ -6213,7 +6848,7 @@
         <v>0.21836352454173619</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.81677482162633142</v>
       </c>
@@ -6229,7 +6864,7 @@
       <c r="E94">
         <v>93</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="15" t="s">
         <v>112</v>
       </c>
       <c r="H94" t="s">
@@ -6263,7 +6898,7 @@
         <v>0.4716652130101503</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.81619079685671858</v>
       </c>
@@ -6282,7 +6917,7 @@
       <c r="F95" t="s">
         <v>283</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H95" t="s">
@@ -6316,7 +6951,7 @@
         <v>0.40178888515679467</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.81617538243408772</v>
       </c>
@@ -6335,7 +6970,7 @@
       <c r="F96" t="s">
         <v>283</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H96" t="s">
@@ -6369,7 +7004,7 @@
         <v>0.22418655186284919</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.81616763016712091</v>
       </c>
@@ -6379,7 +7014,7 @@
       <c r="F97" t="s">
         <v>283</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="15" t="s">
         <v>115</v>
       </c>
       <c r="H97" t="s">
@@ -6413,7 +7048,7 @@
         <v>0.49495732229460221</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.81579826313073422</v>
       </c>
@@ -6432,7 +7067,7 @@
       <c r="F98" t="s">
         <v>283</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H98" t="s">
@@ -6466,7 +7101,7 @@
         <v>0.15139871034893709</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.81456741994958826</v>
       </c>
@@ -6482,7 +7117,7 @@
       <c r="E99">
         <v>98</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="15" t="s">
         <v>117</v>
       </c>
       <c r="H99" t="s">
@@ -6516,7 +7151,7 @@
         <v>0.20671746989951029</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.81428251531429419</v>
       </c>
@@ -6535,7 +7170,7 @@
       <c r="F100" t="s">
         <v>283</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="15" t="s">
         <v>118</v>
       </c>
       <c r="H100" t="s">
@@ -6569,7 +7204,7 @@
         <v>0.21254049722062329</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.81422035728770381</v>
       </c>
@@ -6579,7 +7214,7 @@
       <c r="F101" t="s">
         <v>283</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="15" t="s">
         <v>119</v>
       </c>
       <c r="H101" t="s">
@@ -6613,7 +7248,7 @@
         <v>0.48039975399181972</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.81375885347883736</v>
       </c>
@@ -6629,7 +7264,7 @@
       <c r="E102">
         <v>101</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H102" t="s">
@@ -6663,7 +7298,7 @@
         <v>0.30279742069787419</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.81351337820634184</v>
       </c>
@@ -6682,7 +7317,7 @@
       <c r="F103" t="s">
         <v>283</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="15" t="s">
         <v>121</v>
       </c>
       <c r="H103" t="s">
@@ -6716,14 +7351,14 @@
         <v>0.4833112676523762</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.8124030824821229</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="15" t="s">
         <v>122</v>
       </c>
       <c r="H104" t="s">
@@ -6757,7 +7392,7 @@
         <v>0.46584218568903729</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.81200534227846943</v>
       </c>
@@ -6776,7 +7411,7 @@
       <c r="F105" t="s">
         <v>283</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H105" t="s">
@@ -6810,14 +7445,14 @@
         <v>0.71623236049689487</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.8119857504229806</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="15" t="s">
         <v>124</v>
       </c>
       <c r="H106" t="s">
@@ -6851,14 +7486,14 @@
         <v>6.9876327853355596E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.8116064963629197</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="15" t="s">
         <v>125</v>
       </c>
       <c r="H107" t="s">
@@ -6892,7 +7527,7 @@
         <v>0.78028566102913743</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.81134480497113759</v>
       </c>
@@ -6911,7 +7546,7 @@
       <c r="F108" t="s">
         <v>283</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="15" t="s">
         <v>126</v>
       </c>
       <c r="H108" t="s">
@@ -6945,7 +7580,7 @@
         <v>0.16013325133060649</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.81116276914390162</v>
       </c>
@@ -6961,7 +7596,7 @@
       <c r="E109">
         <v>108</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="15" t="s">
         <v>127</v>
       </c>
       <c r="H109" t="s">
@@ -6995,7 +7630,7 @@
         <v>0.17469081963338901</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.8109613623929055</v>
       </c>
@@ -7014,7 +7649,7 @@
       <c r="F110" t="s">
         <v>283</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H110" t="s">
@@ -7048,14 +7683,14 @@
         <v>0.1426641693672677</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.81057620276533537</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H111" t="s">
@@ -7083,7 +7718,7 @@
         <v>0.42374487545805573</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.81054022703565831</v>
       </c>
@@ -7102,7 +7737,7 @@
       <c r="F112" t="s">
         <v>283</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="15" t="s">
         <v>130</v>
       </c>
       <c r="H112" t="s">
@@ -7136,7 +7771,7 @@
         <v>0.10190297811947691</v>
       </c>
     </row>
-    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.80963188939079811</v>
       </c>
@@ -7155,7 +7790,7 @@
       <c r="F113" t="s">
         <v>283</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="15" t="s">
         <v>131</v>
       </c>
       <c r="H113" t="s">
@@ -7189,7 +7824,7 @@
         <v>0.45128461738625492</v>
       </c>
     </row>
-    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.8092023473361345</v>
       </c>
@@ -7208,7 +7843,7 @@
       <c r="F114" t="s">
         <v>283</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="15" t="s">
         <v>132</v>
       </c>
       <c r="H114" t="s">
@@ -7242,7 +7877,7 @@
         <v>0.18633687427561491</v>
       </c>
     </row>
-    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.80902509550879476</v>
       </c>
@@ -7261,7 +7896,7 @@
       <c r="F115" t="s">
         <v>283</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="15" t="s">
         <v>133</v>
       </c>
       <c r="H115" t="s">
@@ -7295,14 +7930,14 @@
         <v>2.9115136605564831E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.80882968953675005</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="15" t="s">
         <v>134</v>
       </c>
       <c r="H116" t="s">
@@ -7336,7 +7971,7 @@
         <v>0.14557568302782409</v>
       </c>
     </row>
-    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.80847034526426598</v>
       </c>
@@ -7352,7 +7987,7 @@
       <c r="E117">
         <v>116</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="15" t="s">
         <v>135</v>
       </c>
       <c r="H117" t="s">
@@ -7386,7 +8021,7 @@
         <v>0.23292109284451859</v>
       </c>
     </row>
-    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.80765844061326253</v>
       </c>
@@ -7402,7 +8037,7 @@
       <c r="E118">
         <v>117</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H118" t="s">
@@ -7440,7 +8075,7 @@
       <c r="F119" t="s">
         <v>284</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="15" t="s">
         <v>137</v>
       </c>
       <c r="H119" t="s">
@@ -7474,7 +8109,7 @@
         <v>0.39596585783568172</v>
       </c>
     </row>
-    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.80752563629572938</v>
       </c>
@@ -7493,7 +8128,7 @@
       <c r="F120" t="s">
         <v>283</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H120" t="s">
@@ -7527,7 +8162,7 @@
         <v>0.14557568302782409</v>
       </c>
     </row>
-    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.80721130485719716</v>
       </c>
@@ -7543,7 +8178,7 @@
       <c r="E121">
         <v>120</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="15" t="s">
         <v>139</v>
       </c>
       <c r="H121" t="s">
@@ -7577,7 +8212,7 @@
         <v>0.58521424577185321</v>
       </c>
     </row>
-    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.80694027760609055</v>
       </c>
@@ -7596,7 +8231,7 @@
       <c r="F122" t="s">
         <v>283</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="15" t="s">
         <v>140</v>
       </c>
       <c r="H122" t="s">
@@ -7630,7 +8265,7 @@
         <v>0.20380595623895381</v>
       </c>
     </row>
-    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.8066066728242125</v>
       </c>
@@ -7649,7 +8284,7 @@
       <c r="F123" t="s">
         <v>283</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="15" t="s">
         <v>141</v>
       </c>
       <c r="H123" t="s">
@@ -7683,7 +8318,7 @@
         <v>0.39014283051456872</v>
       </c>
     </row>
-    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.80597700634916514</v>
       </c>
@@ -7702,7 +8337,7 @@
       <c r="F124" t="s">
         <v>283</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="15" t="s">
         <v>142</v>
       </c>
       <c r="H124" t="s">
@@ -7736,7 +8371,7 @@
         <v>0.1630447649911631</v>
       </c>
     </row>
-    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.80595960732618122</v>
       </c>
@@ -7755,7 +8390,7 @@
       <c r="F125" t="s">
         <v>283</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="15" t="s">
         <v>143</v>
       </c>
       <c r="H125" t="s">
@@ -7789,7 +8424,7 @@
         <v>0.1106375191011464</v>
       </c>
     </row>
-    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.80583896501123753</v>
       </c>
@@ -7805,7 +8440,7 @@
       <c r="E126">
         <v>125</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="15" t="s">
         <v>144</v>
       </c>
       <c r="H126" t="s">
@@ -7839,14 +8474,14 @@
         <v>0.51824943157905412</v>
       </c>
     </row>
-    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.80566032634072959</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="15" t="s">
         <v>145</v>
       </c>
       <c r="H127" t="s">
@@ -7880,7 +8515,7 @@
         <v>0.1077260054405899</v>
       </c>
     </row>
-    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.80557498159644736</v>
       </c>
@@ -7896,7 +8531,7 @@
       <c r="E128">
         <v>127</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="15" t="s">
         <v>146</v>
       </c>
       <c r="H128" t="s">
@@ -7930,14 +8565,14 @@
         <v>0.81813533861637178</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.80556476856799519</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="15" t="s">
         <v>147</v>
       </c>
       <c r="H129" t="s">
@@ -7971,7 +8606,7 @@
         <v>0.1193720600828158</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.80548490281913177</v>
       </c>
@@ -7987,7 +8622,7 @@
       <c r="E130">
         <v>129</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="15" t="s">
         <v>148</v>
       </c>
       <c r="H130" t="s">
@@ -8021,14 +8656,14 @@
         <v>0.19215990159672791</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.80521525760125323</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="15" t="s">
         <v>149</v>
       </c>
       <c r="H131" t="s">
@@ -8062,7 +8697,7 @@
         <v>6.9876327853355596E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.80499803880871568</v>
       </c>
@@ -8081,7 +8716,7 @@
       <c r="F132" t="s">
         <v>283</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="15" t="s">
         <v>150</v>
       </c>
       <c r="H132" t="s">
@@ -8115,14 +8750,14 @@
         <v>0.13975265570671119</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.80494960027585216</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="15" t="s">
         <v>151</v>
       </c>
       <c r="H133" t="s">
@@ -8156,7 +8791,7 @@
         <v>0.16595627865171961</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.80490356521587547</v>
       </c>
@@ -8172,7 +8807,7 @@
       <c r="E134">
         <v>133</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="15" t="s">
         <v>152</v>
       </c>
       <c r="H134" t="s">
@@ -8206,7 +8841,7 @@
         <v>0.1222835737433723</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.80442098846053645</v>
       </c>
@@ -8225,7 +8860,7 @@
       <c r="F135" t="s">
         <v>283</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H135" t="s">
@@ -8259,14 +8894,14 @@
         <v>0.11354903276170281</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.80430207272276877</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="15" t="s">
         <v>154</v>
       </c>
       <c r="H136" t="s">
@@ -8300,7 +8935,7 @@
         <v>0.58521424577185321</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.80261030956673873</v>
       </c>
@@ -8316,7 +8951,7 @@
       <c r="E137">
         <v>136</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="15" t="s">
         <v>155</v>
       </c>
       <c r="H137" t="s">
@@ -8350,7 +8985,7 @@
         <v>0.41925796712013358</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.80226766021156548</v>
       </c>
@@ -8366,7 +9001,7 @@
       <c r="E138">
         <v>137</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H138" t="s">
@@ -8400,7 +9035,7 @@
         <v>9.316843713780748E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.80223616226645666</v>
       </c>
@@ -8419,7 +9054,7 @@
       <c r="F139" t="s">
         <v>283</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H139" t="s">
@@ -8453,7 +9088,7 @@
         <v>0.20089444257839731</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.80081209541577436</v>
       </c>
@@ -8472,7 +9107,7 @@
       <c r="F140" t="s">
         <v>283</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H140" t="s">
@@ -8506,7 +9141,7 @@
         <v>0.41343493979902057</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.80025570256448697</v>
       </c>
@@ -8525,7 +9160,7 @@
       <c r="F141" t="s">
         <v>283</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H141" t="s">
@@ -8559,7 +9194,7 @@
         <v>9.8991464458920431E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.80020234797800538</v>
       </c>
@@ -8578,7 +9213,7 @@
       <c r="F142" t="s">
         <v>283</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="15" t="s">
         <v>160</v>
       </c>
       <c r="H142" t="s">
@@ -8612,14 +9247,14 @@
         <v>0.4774882403312633</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.79964294877184039</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H143" t="s">
@@ -8653,14 +9288,14 @@
         <v>5.2407245890016697E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.79915633273718556</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="15" t="s">
         <v>162</v>
       </c>
       <c r="H144" t="s">
@@ -8694,7 +9329,7 @@
         <v>0.1572217376700501</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.79894527737794463</v>
       </c>
@@ -8710,7 +9345,7 @@
       <c r="E145">
         <v>144</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="15" t="s">
         <v>163</v>
       </c>
       <c r="H145" t="s">
@@ -8744,7 +9379,7 @@
         <v>0.18633687427561491</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.79891397861125923</v>
       </c>
@@ -8754,7 +9389,7 @@
       <c r="F146" t="s">
         <v>283</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="15" t="s">
         <v>164</v>
       </c>
       <c r="H146" t="s">
@@ -8788,7 +9423,7 @@
         <v>6.9876327853355596E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.7988067647507473</v>
       </c>
@@ -8807,7 +9442,7 @@
       <c r="F147" t="s">
         <v>283</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="15" t="s">
         <v>165</v>
       </c>
       <c r="H147" t="s">
@@ -8841,7 +9476,7 @@
         <v>0.21545201088117971</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.79837112997005988</v>
       </c>
@@ -8860,7 +9495,7 @@
       <c r="F148" t="s">
         <v>283</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="15" t="s">
         <v>166</v>
       </c>
       <c r="H148" t="s">
@@ -8894,7 +9529,7 @@
         <v>3.784967758723428E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.79818207486267867</v>
       </c>
@@ -8913,7 +9548,7 @@
       <c r="F149" t="s">
         <v>283</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="15" t="s">
         <v>167</v>
       </c>
       <c r="H149" t="s">
@@ -8947,7 +9582,7 @@
         <v>0.12519508740392879</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.79768701601042702</v>
       </c>
@@ -8963,7 +9598,7 @@
       <c r="E150">
         <v>149</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="15" t="s">
         <v>168</v>
       </c>
       <c r="H150" t="s">
@@ -8997,14 +9632,14 @@
         <v>0.81522382495581536</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.79763976180118257</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="15" t="s">
         <v>169</v>
       </c>
       <c r="H151" t="s">
@@ -9038,7 +9673,7 @@
         <v>0.22127503820229269</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.79719642425474557</v>
       </c>
@@ -9057,7 +9692,7 @@
       <c r="F152" t="s">
         <v>283</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="15" t="s">
         <v>170</v>
       </c>
       <c r="H152" t="s">
@@ -9091,7 +9726,7 @@
         <v>9.6079950798363942E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.79713218864325741</v>
       </c>
@@ -9110,7 +9745,7 @@
       <c r="F153" t="s">
         <v>283</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="15" t="s">
         <v>171</v>
       </c>
       <c r="H153" t="s">
@@ -9144,7 +9779,7 @@
         <v>0.47457672667070683</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.79659847214045088</v>
       </c>
@@ -9163,7 +9798,7 @@
       <c r="F154" t="s">
         <v>283</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="15" t="s">
         <v>172</v>
       </c>
       <c r="H154" t="s">
@@ -9197,7 +9832,7 @@
         <v>5.2407245890016697E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.79596966320138718</v>
       </c>
@@ -9213,7 +9848,7 @@
       <c r="E155">
         <v>154</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="15" t="s">
         <v>173</v>
       </c>
       <c r="H155" t="s">
@@ -9247,14 +9882,14 @@
         <v>0.20380595623895381</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.79483704500571406</v>
       </c>
       <c r="E156">
         <v>155</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="15" t="s">
         <v>174</v>
       </c>
       <c r="H156" t="s">
@@ -9288,7 +9923,7 @@
         <v>0.62597543701964387</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.79450968601096472</v>
       </c>
@@ -9307,7 +9942,7 @@
       <c r="F157" t="s">
         <v>283</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="15" t="s">
         <v>175</v>
       </c>
       <c r="H157" t="s">
@@ -9341,14 +9976,14 @@
         <v>0.20380595623895381</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.7942320520544609</v>
       </c>
       <c r="E158">
         <v>157</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="15" t="s">
         <v>176</v>
       </c>
       <c r="H158" t="s">
@@ -9382,7 +10017,7 @@
         <v>0.13392962838559819</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.7936827552764576</v>
       </c>
@@ -9401,7 +10036,7 @@
       <c r="F159" t="s">
         <v>283</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="15" t="s">
         <v>177</v>
       </c>
       <c r="H159" t="s">
@@ -9435,7 +10070,7 @@
         <v>9.8991464458920431E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.79366963093125731</v>
       </c>
@@ -9454,7 +10089,7 @@
       <c r="F160" t="s">
         <v>283</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="15" t="s">
         <v>178</v>
       </c>
       <c r="H160" t="s">
@@ -9488,7 +10123,7 @@
         <v>0.31153196167954372</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.79275295749346375</v>
       </c>
@@ -9504,7 +10139,7 @@
       <c r="E161">
         <v>160</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="15" t="s">
         <v>179</v>
       </c>
       <c r="H161" t="s">
@@ -9538,7 +10173,7 @@
         <v>0.18924838793617141</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.79266655820251852</v>
       </c>
@@ -9557,7 +10192,7 @@
       <c r="F162" t="s">
         <v>283</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="15" t="s">
         <v>180</v>
       </c>
       <c r="H162" t="s">
@@ -9591,14 +10226,14 @@
         <v>9.6079950798363942E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.79214120591015869</v>
       </c>
       <c r="E163">
         <v>162</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="15" t="s">
         <v>181</v>
       </c>
       <c r="H163" t="s">
@@ -9632,7 +10267,7 @@
         <v>0.11354903276170281</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.79110846646823352</v>
       </c>
@@ -9651,7 +10286,7 @@
       <c r="F164" t="s">
         <v>283</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="15" t="s">
         <v>182</v>
       </c>
       <c r="H164" t="s">
@@ -9685,14 +10320,14 @@
         <v>2.6203622945008349E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.7908991884962091</v>
       </c>
       <c r="E165">
         <v>164</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="15" t="s">
         <v>183</v>
       </c>
       <c r="H165" t="s">
@@ -9726,14 +10361,14 @@
         <v>0.19798292891784089</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.79049191923590167</v>
       </c>
       <c r="E166">
         <v>165</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="15" t="s">
         <v>184</v>
       </c>
       <c r="H166" t="s">
@@ -9767,7 +10402,7 @@
         <v>0.24456714748674449</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.78987336658140039</v>
       </c>
@@ -9783,7 +10418,7 @@
       <c r="E167">
         <v>166</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="15" t="s">
         <v>185</v>
       </c>
       <c r="H167" t="s">
@@ -9817,7 +10452,7 @@
         <v>0.1164605464222593</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.78934193958631982</v>
       </c>
@@ -9833,7 +10468,7 @@
       <c r="E168">
         <v>167</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H168" t="s">
@@ -9867,7 +10502,7 @@
         <v>6.9876327853355596E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.7888257815314268</v>
       </c>
@@ -9883,7 +10518,7 @@
       <c r="E169">
         <v>168</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="15" t="s">
         <v>187</v>
       </c>
       <c r="H169" t="s">
@@ -9917,7 +10552,7 @@
         <v>0.17469081963338901</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.78696945286683417</v>
       </c>
@@ -9933,7 +10568,7 @@
       <c r="E170">
         <v>169</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="15" t="s">
         <v>188</v>
       </c>
       <c r="H170" t="s">
@@ -9967,7 +10602,7 @@
         <v>0.26785925677119637</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.7868073296712349</v>
       </c>
@@ -9983,7 +10618,7 @@
       <c r="E171">
         <v>170</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="15" t="s">
         <v>189</v>
       </c>
       <c r="H171" t="s">
@@ -10017,14 +10652,14 @@
         <v>6.6964814192799108E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.78576283798813584</v>
       </c>
       <c r="E172">
         <v>171</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="15" t="s">
         <v>190</v>
       </c>
       <c r="H172" t="s">
@@ -10058,14 +10693,14 @@
         <v>0.12519508740392879</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.78525893826112525</v>
       </c>
       <c r="E173">
         <v>172</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="15" t="s">
         <v>191</v>
       </c>
       <c r="H173" t="s">
@@ -10099,14 +10734,14 @@
         <v>5.5318759550573179E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.78506126952572741</v>
       </c>
       <c r="E174">
         <v>173</v>
       </c>
-      <c r="G174" s="9" t="s">
+      <c r="G174" s="15" t="s">
         <v>192</v>
       </c>
       <c r="H174" t="s">
@@ -10140,14 +10775,14 @@
         <v>0.4774882403312633</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.78492923052440244</v>
       </c>
       <c r="E175">
         <v>174</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="15" t="s">
         <v>193</v>
       </c>
       <c r="H175" t="s">
@@ -10181,7 +10816,7 @@
         <v>0.15139871034893709</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.78452579101714659</v>
       </c>
@@ -10200,7 +10835,7 @@
       <c r="F176" t="s">
         <v>283</v>
       </c>
-      <c r="G176" s="9" t="s">
+      <c r="G176" s="15" t="s">
         <v>194</v>
       </c>
       <c r="H176" t="s">
@@ -10234,14 +10869,14 @@
         <v>0.1426641693672677</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.78408692528591217</v>
       </c>
       <c r="E177">
         <v>176</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="15" t="s">
         <v>195</v>
       </c>
       <c r="H177" t="s">
@@ -10275,7 +10910,7 @@
         <v>0.26494774311064001</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.7836782540824927</v>
       </c>
@@ -10291,7 +10926,7 @@
       <c r="E178">
         <v>177</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="15" t="s">
         <v>196</v>
       </c>
       <c r="H178" t="s">
@@ -10325,7 +10960,7 @@
         <v>0.32026650266121309</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.78337014508917024</v>
       </c>
@@ -10344,7 +10979,7 @@
       <c r="F179" t="s">
         <v>283</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="15" t="s">
         <v>197</v>
       </c>
       <c r="H179" t="s">
@@ -10378,14 +11013,14 @@
         <v>8.7345409816694489E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.78321870761798162</v>
       </c>
       <c r="E180">
         <v>179</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="15" t="s">
         <v>198</v>
       </c>
       <c r="H180" t="s">
@@ -10419,14 +11054,14 @@
         <v>0.16013325133060649</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.78275560286943613</v>
       </c>
       <c r="E181">
         <v>180</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H181" t="s">
@@ -10460,7 +11095,7 @@
         <v>0.14557568302782409</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.78198179969938364</v>
       </c>
@@ -10479,7 +11114,7 @@
       <c r="F182" t="s">
         <v>283</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="15" t="s">
         <v>200</v>
       </c>
       <c r="H182" t="s">
@@ -10513,7 +11148,7 @@
         <v>2.9115136605564831E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.78169417007931985</v>
       </c>
@@ -10529,7 +11164,7 @@
       <c r="E183">
         <v>182</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="15" t="s">
         <v>201</v>
       </c>
       <c r="H183" t="s">
@@ -10563,7 +11198,7 @@
         <v>0.20089444257839731</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.7816642526644757</v>
       </c>
@@ -10579,7 +11214,7 @@
       <c r="E184">
         <v>183</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="15" t="s">
         <v>202</v>
       </c>
       <c r="H184" t="s">
@@ -10613,7 +11248,7 @@
         <v>0.13101811472504171</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.78149358741164276</v>
       </c>
@@ -10632,7 +11267,7 @@
       <c r="F185" t="s">
         <v>283</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="15" t="s">
         <v>203</v>
       </c>
       <c r="H185" t="s">
@@ -10666,14 +11301,14 @@
         <v>7.861086883502505E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.7814893093091555</v>
       </c>
       <c r="E186">
         <v>185</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="15" t="s">
         <v>204</v>
       </c>
       <c r="H186" t="s">
@@ -10707,7 +11342,7 @@
         <v>0.19215990159672791</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.7813472288136889</v>
       </c>
@@ -10723,7 +11358,7 @@
       <c r="E187">
         <v>186</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="15" t="s">
         <v>205</v>
       </c>
       <c r="H187" t="s">
@@ -10757,7 +11392,7 @@
         <v>0.2387441201656316</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.78130625081096761</v>
       </c>
@@ -10776,7 +11411,7 @@
       <c r="F188" t="s">
         <v>283</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="15" t="s">
         <v>206</v>
       </c>
       <c r="H188" t="s">
@@ -10810,7 +11445,7 @@
         <v>0.1164605464222593</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.78109023151330004</v>
       </c>
@@ -10826,7 +11461,7 @@
       <c r="E189">
         <v>188</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="15" t="s">
         <v>207</v>
       </c>
       <c r="H189" t="s">
@@ -10860,14 +11495,14 @@
         <v>0.17760233329394551</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.78090818772614601</v>
       </c>
       <c r="E190">
         <v>189</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="15" t="s">
         <v>208</v>
       </c>
       <c r="H190" t="s">
@@ -10901,14 +11536,14 @@
         <v>0.1630447649911631</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.78007413608993081</v>
       </c>
       <c r="E191">
         <v>190</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="15" t="s">
         <v>209</v>
       </c>
       <c r="H191" t="s">
@@ -10942,7 +11577,7 @@
         <v>0.35520466658789102</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.78006858145837032</v>
       </c>
@@ -10958,7 +11593,7 @@
       <c r="E192">
         <v>191</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="15" t="s">
         <v>210</v>
       </c>
       <c r="H192" t="s">
@@ -10992,14 +11627,14 @@
         <v>0.1164605464222593</v>
       </c>
     </row>
-    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.77943412526310274</v>
       </c>
       <c r="E193">
         <v>192</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="15" t="s">
         <v>211</v>
       </c>
       <c r="H193" t="s">
@@ -11033,7 +11668,7 @@
         <v>0.19215990159672791</v>
       </c>
     </row>
-    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.77909543350920663</v>
       </c>
@@ -11052,7 +11687,7 @@
       <c r="F194" t="s">
         <v>283</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="15" t="s">
         <v>212</v>
       </c>
       <c r="H194" t="s">
@@ -11086,7 +11721,7 @@
         <v>0.1106375191011464</v>
       </c>
     </row>
-    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.77908980903153313</v>
       </c>
@@ -11102,7 +11737,7 @@
       <c r="E195">
         <v>194</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="15" t="s">
         <v>213</v>
       </c>
       <c r="H195" t="s">
@@ -11136,14 +11771,14 @@
         <v>0.3930543441751253</v>
       </c>
     </row>
-    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.77788695169814392</v>
       </c>
       <c r="E196">
         <v>195</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="15" t="s">
         <v>214</v>
       </c>
       <c r="H196" t="s">
@@ -11177,7 +11812,7 @@
         <v>0.1222835737433723</v>
       </c>
     </row>
-    <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.77781221621161634</v>
       </c>
@@ -11193,7 +11828,7 @@
       <c r="E197">
         <v>196</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="15" t="s">
         <v>215</v>
       </c>
       <c r="H197" t="s">
@@ -11227,7 +11862,7 @@
         <v>8.7345409816694489E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.77767415303640197</v>
       </c>
@@ -11237,7 +11872,7 @@
       <c r="F198" t="s">
         <v>283</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="15" t="s">
         <v>216</v>
       </c>
       <c r="H198" t="s">
@@ -11271,7 +11906,7 @@
         <v>0.11354903276170281</v>
       </c>
     </row>
-    <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.77733319253928523</v>
       </c>
@@ -11287,7 +11922,7 @@
       <c r="E199">
         <v>198</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="15" t="s">
         <v>217</v>
       </c>
       <c r="H199" t="s">
@@ -11321,14 +11956,14 @@
         <v>0.16886779231227611</v>
       </c>
     </row>
-    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.77710407594447095</v>
       </c>
       <c r="E200">
         <v>199</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="15" t="s">
         <v>218</v>
       </c>
       <c r="H200" t="s">
@@ -11362,14 +11997,14 @@
         <v>0.1106375191011464</v>
       </c>
     </row>
-    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.77694570083432035</v>
       </c>
       <c r="E201">
         <v>200</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="15" t="s">
         <v>219</v>
       </c>
       <c r="H201" t="s">
@@ -11403,7 +12038,7 @@
         <v>0.42216948078069011</v>
       </c>
     </row>
-    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.77647641572909332</v>
       </c>
@@ -11419,7 +12054,7 @@
       <c r="E202">
         <v>201</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="15" t="s">
         <v>220</v>
       </c>
       <c r="H202" t="s">
@@ -11453,14 +12088,14 @@
         <v>9.0256923477250978E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.77614289857026131</v>
       </c>
       <c r="E203">
         <v>202</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="15" t="s">
         <v>221</v>
       </c>
       <c r="H203" t="s">
@@ -11494,14 +12129,14 @@
         <v>6.6964814192799108E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.77423162441556048</v>
       </c>
       <c r="E204">
         <v>203</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="15" t="s">
         <v>222</v>
       </c>
       <c r="H204" t="s">
@@ -11535,7 +12170,7 @@
         <v>5.2407245890016697E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.77414196743323016</v>
       </c>
@@ -11554,7 +12189,7 @@
       <c r="F205" t="s">
         <v>283</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="15" t="s">
         <v>223</v>
       </c>
       <c r="H205" t="s">
@@ -11582,7 +12217,7 @@
         <v>0.63743512540875158</v>
       </c>
     </row>
-    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.77146549960354949</v>
       </c>
@@ -11598,7 +12233,7 @@
       <c r="E206">
         <v>205</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="15" t="s">
         <v>224</v>
       </c>
       <c r="H206" t="s">
@@ -11632,14 +12267,14 @@
         <v>0.12519508740392879</v>
       </c>
     </row>
-    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.77085663183320208</v>
       </c>
       <c r="E207">
         <v>206</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="15" t="s">
         <v>225</v>
       </c>
       <c r="H207" t="s">
@@ -11673,7 +12308,7 @@
         <v>9.6079950798363942E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.77039534095113282</v>
       </c>
@@ -11689,7 +12324,7 @@
       <c r="E208">
         <v>207</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="15" t="s">
         <v>226</v>
       </c>
       <c r="H208" t="s">
@@ -11723,7 +12358,7 @@
         <v>0.15139871034893709</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.76898095410848166</v>
       </c>
@@ -11742,7 +12377,7 @@
       <c r="F209" t="s">
         <v>283</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="15" t="s">
         <v>227</v>
       </c>
       <c r="H209" t="s">
@@ -11776,14 +12411,14 @@
         <v>0.4047003988173512</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.76834172340379703</v>
       </c>
       <c r="E210">
         <v>209</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="15" t="s">
         <v>228</v>
       </c>
       <c r="H210" t="s">
@@ -11817,7 +12452,7 @@
         <v>4.6584218568903733E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.76769211468899567</v>
       </c>
@@ -11836,7 +12471,7 @@
       <c r="F211" t="s">
         <v>283</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="15" t="s">
         <v>229</v>
       </c>
       <c r="H211" t="s">
@@ -11870,14 +12505,14 @@
         <v>7.2787841513912085E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.76584508533951046</v>
       </c>
       <c r="E212">
         <v>211</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="15" t="s">
         <v>230</v>
       </c>
       <c r="H212" t="s">
@@ -11911,14 +12546,14 @@
         <v>0.21254049722062329</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.76276656588807734</v>
       </c>
       <c r="E213">
         <v>212</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="15" t="s">
         <v>231</v>
       </c>
       <c r="H213" t="s">
@@ -11952,14 +12587,14 @@
         <v>0.1164605464222593</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.75982879999905739</v>
       </c>
       <c r="E214">
         <v>213</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="15" t="s">
         <v>232</v>
       </c>
       <c r="H214" t="s">
@@ -11993,14 +12628,14 @@
         <v>0.30862044801898719</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.75711063774526066</v>
       </c>
       <c r="E215">
         <v>214</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="15" t="s">
         <v>233</v>
       </c>
       <c r="H215" t="s">
@@ -12034,7 +12669,7 @@
         <v>8.1522382495581538E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.7568775701049365</v>
       </c>
@@ -12053,7 +12688,7 @@
       <c r="F216" t="s">
         <v>283</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="15" t="s">
         <v>234</v>
       </c>
       <c r="H216" t="s">
@@ -12087,7 +12722,7 @@
         <v>0.1572217376700501</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.75597152643428278</v>
       </c>
@@ -12106,7 +12741,7 @@
       <c r="F217" t="s">
         <v>283</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="15" t="s">
         <v>235</v>
       </c>
       <c r="H217" t="s">
@@ -12140,14 +12775,14 @@
         <v>9.6079950798363942E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.75404467491602811</v>
       </c>
       <c r="E218">
         <v>217</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="15" t="s">
         <v>236</v>
       </c>
       <c r="H218" t="s">
@@ -12181,14 +12816,14 @@
         <v>0.13101811472504171</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.75354741041978324</v>
       </c>
       <c r="E219">
         <v>218</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="15" t="s">
         <v>237</v>
       </c>
       <c r="H219" t="s">
@@ -12222,14 +12857,14 @@
         <v>8.7345409816694489E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.75320150459348933</v>
       </c>
       <c r="E220">
         <v>219</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="15" t="s">
         <v>238</v>
       </c>
       <c r="H220" t="s">
@@ -12263,7 +12898,7 @@
         <v>0.18342536061505851</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.7510407776252318</v>
       </c>
@@ -12279,7 +12914,7 @@
       <c r="E221">
         <v>220</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="15" t="s">
         <v>239</v>
       </c>
       <c r="H221" t="s">
@@ -12313,14 +12948,14 @@
         <v>6.1141786871686143E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.75089561860441556</v>
       </c>
       <c r="E222">
         <v>221</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="15" t="s">
         <v>240</v>
       </c>
       <c r="H222" t="s">
@@ -12354,14 +12989,14 @@
         <v>0.1630447649911631</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.74769240912170043</v>
       </c>
       <c r="E223">
         <v>222</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="15" t="s">
         <v>241</v>
       </c>
       <c r="H223" t="s">
@@ -12395,7 +13030,7 @@
         <v>0.13392962838559819</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.74271364851327371</v>
       </c>
@@ -12411,7 +13046,7 @@
       <c r="E224">
         <v>223</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="15" t="s">
         <v>242</v>
       </c>
       <c r="H224" t="s">
@@ -12445,7 +13080,7 @@
         <v>0.1106375191011464</v>
       </c>
     </row>
-    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.73814215772804836</v>
       </c>
@@ -12461,7 +13096,7 @@
       <c r="E225">
         <v>224</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="15" t="s">
         <v>243</v>
       </c>
       <c r="H225" t="s">
@@ -12489,14 +13124,14 @@
         <v>0.4467561385744897</v>
       </c>
     </row>
-    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.73445854055516213</v>
       </c>
       <c r="E226">
         <v>225</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="15" t="s">
         <v>244</v>
       </c>
       <c r="H226" t="s">
@@ -12530,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.73396955464441027</v>
       </c>
@@ -12549,7 +13184,7 @@
       <c r="F227" t="s">
         <v>283</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="15" t="s">
         <v>245</v>
       </c>
       <c r="H227" t="s">
@@ -12577,14 +13212,14 @@
         <v>0.50979051438746881</v>
       </c>
     </row>
-    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.7337618848762808</v>
       </c>
       <c r="E228">
         <v>227</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="15" t="s">
         <v>246</v>
       </c>
       <c r="H228" t="s">
@@ -12618,14 +13253,14 @@
         <v>0.1164605464222593</v>
       </c>
     </row>
-    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.73052839618548937</v>
       </c>
       <c r="E229">
         <v>228</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="15" t="s">
         <v>247</v>
       </c>
       <c r="H229" t="s">
@@ -12659,14 +13294,14 @@
         <v>8.1522382495581538E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.73008990788913775</v>
       </c>
       <c r="E230">
         <v>229</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="15" t="s">
         <v>248</v>
       </c>
       <c r="H230" t="s">
@@ -12700,14 +13335,14 @@
         <v>4.0761191247790769E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.7209294387066657</v>
       </c>
       <c r="E231">
         <v>230</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="15" t="s">
         <v>249</v>
       </c>
       <c r="H231" t="s">
@@ -12729,14 +13364,14 @@
         <v>0.44294081061412122</v>
       </c>
     </row>
-    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.7196312684826216</v>
       </c>
       <c r="E232">
         <v>231</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="15" t="s">
         <v>250</v>
       </c>
       <c r="H232" t="s">
@@ -12770,14 +13405,14 @@
         <v>5.2407245890016697E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.69103694770477486</v>
       </c>
       <c r="E233">
         <v>232</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="15" t="s">
         <v>251</v>
       </c>
       <c r="H233" t="s">
@@ -12790,7 +13425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.68254239199326627</v>
       </c>
@@ -12806,7 +13441,7 @@
       <c r="E234">
         <v>233</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="15" t="s">
         <v>252</v>
       </c>
       <c r="H234" t="s">
@@ -12834,14 +13469,14 @@
         <v>0.57834039808408366</v>
       </c>
     </row>
-    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.6813950052684703</v>
       </c>
       <c r="E235">
         <v>234</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="15" t="s">
         <v>253</v>
       </c>
       <c r="H235" t="s">
@@ -12854,7 +13489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.67877208134914613</v>
       </c>
@@ -12873,7 +13508,7 @@
       <c r="F236" t="s">
         <v>283</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="15" t="s">
         <v>254</v>
       </c>
       <c r="H236" t="s">
@@ -12901,14 +13536,14 @@
         <v>0.57440074959577248</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.67033824106374107</v>
       </c>
       <c r="E237">
         <v>236</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="15" t="s">
         <v>255</v>
       </c>
       <c r="H237" t="s">
@@ -12921,7 +13556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.66754845712018718</v>
       </c>
@@ -12940,7 +13575,7 @@
       <c r="F238" t="s">
         <v>283</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="15" t="s">
         <v>256</v>
       </c>
       <c r="H238" t="s">
@@ -12968,7 +13603,7 @@
         <v>0.4798491858763036</v>
       </c>
     </row>
-    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.64551486747211706</v>
       </c>
@@ -12987,7 +13622,7 @@
       <c r="F239" t="s">
         <v>283</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="15" t="s">
         <v>257</v>
       </c>
       <c r="H239" t="s">
@@ -13015,7 +13650,7 @@
         <v>0.38293383306384837</v>
       </c>
     </row>
-    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.62008824099370585</v>
       </c>
@@ -13034,7 +13669,7 @@
       <c r="F240" t="s">
         <v>283</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="15" t="s">
         <v>258</v>
       </c>
       <c r="H240" t="s">
@@ -13062,7 +13697,7 @@
         <v>0.36638730941294129</v>
       </c>
     </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.61809150453348871</v>
       </c>
@@ -13081,7 +13716,7 @@
       <c r="F241" t="s">
         <v>283</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="15" t="s">
         <v>259</v>
       </c>
       <c r="H241" t="s">
@@ -13109,14 +13744,14 @@
         <v>0.53579219441032278</v>
       </c>
     </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.58580592582170321</v>
       </c>
       <c r="E242">
         <v>241</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="15" t="s">
         <v>260</v>
       </c>
       <c r="H242" t="s">
@@ -13144,7 +13779,7 @@
         <v>0.38608555185449739</v>
       </c>
     </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.57683980372098287</v>
       </c>
@@ -13163,7 +13798,7 @@
       <c r="F243" t="s">
         <v>283</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="15" t="s">
         <v>261</v>
       </c>
       <c r="H243" t="s">
@@ -13191,14 +13826,14 @@
         <v>0.4467561385744897</v>
       </c>
     </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.57535654571655659</v>
       </c>
       <c r="E244">
         <v>243</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="15" t="s">
         <v>262</v>
       </c>
       <c r="H244" t="s">
@@ -13226,7 +13861,7 @@
         <v>0.25450129234490332</v>
       </c>
     </row>
-    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.53967768075600608</v>
       </c>
@@ -13245,7 +13880,7 @@
       <c r="F245" t="s">
         <v>283</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="15" t="s">
         <v>263</v>
       </c>
       <c r="H245" t="s">
@@ -13273,14 +13908,14 @@
         <v>0.22219617474075151</v>
       </c>
     </row>
-    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.43579259835392431</v>
       </c>
       <c r="E246">
         <v>245</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="15" t="s">
         <v>264</v>
       </c>
       <c r="H246" t="s">
@@ -13308,14 +13943,14 @@
         <v>0.34747699666904758</v>
       </c>
     </row>
-    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.43320564595342143</v>
       </c>
       <c r="E247">
         <v>246</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="15" t="s">
         <v>265</v>
       </c>
       <c r="H247" t="s">
@@ -13343,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.35707868038953039</v>
       </c>
@@ -13359,7 +13994,7 @@
       <c r="E248">
         <v>247</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="15" t="s">
         <v>266</v>
       </c>
       <c r="H248" t="s">
@@ -13387,14 +14022,14 @@
         <v>0.1276446110212828</v>
       </c>
     </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.3213743770516288</v>
       </c>
       <c r="E249">
         <v>248</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="15" t="s">
         <v>267</v>
       </c>
       <c r="H249" t="s">
@@ -13422,14 +14057,14 @@
         <v>0.1221291031376471</v>
       </c>
     </row>
-    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7.8075795077421406E-2</v>
       </c>
       <c r="E250">
         <v>249</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="15" t="s">
         <v>268</v>
       </c>
       <c r="H250" t="s">
@@ -13457,14 +14092,14 @@
         <v>0.28917019904204189</v>
       </c>
     </row>
-    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
       <c r="E251">
         <v>250</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="15" t="s">
         <v>269</v>
       </c>
       <c r="H251" t="s">
@@ -13499,10 +14134,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0.85798458361762875</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.19361799867716659</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.413519327207164</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.61570839273235078</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.50338676620410816</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.49855622369439229</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.30920285530163971</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.68420571023077359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>0.84509359077689483</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6">
+        <v>75</v>
+      </c>
+      <c r="E3" s="6">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="6">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.18172576511730859</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.49486108376396543</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.62907239230608947</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.60552321152088362</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.41704535173539881</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.24093728984543361</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.4163464534595771</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2:Q2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:Q3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14290,52 +15162,52 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
         <v>118</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>25</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.21595674328568429</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>9.4039381752517803E-2</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>0.54675291039568907</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>0.10943190569654521</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>0.40029654242875617</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>0.80513211023349041</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <v>0.39596585783568172</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I17" s="1">
@@ -14404,12 +15276,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14418,533 +15290,1022 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="P1" s="12"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="12">
+        <v>333</v>
+      </c>
+      <c r="D2" s="12">
+        <v>537</v>
+      </c>
+      <c r="E2" s="12">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12">
+        <v>268</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2891</v>
+      </c>
+      <c r="H2" s="12">
+        <v>841</v>
+      </c>
+      <c r="I2" s="12">
+        <v>647</v>
+      </c>
+      <c r="J2" s="12">
+        <v>55</v>
+      </c>
+      <c r="K2" s="12">
+        <v>145.41</v>
+      </c>
+      <c r="L2" s="12">
+        <v>3143</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="N2" s="12">
+        <v>7</v>
+      </c>
+      <c r="O2" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="12">
+        <v>302</v>
+      </c>
+      <c r="D3" s="12">
+        <v>535</v>
+      </c>
+      <c r="E3" s="12">
+        <v>80</v>
+      </c>
+      <c r="F3" s="12">
+        <v>248</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2785</v>
+      </c>
+      <c r="H3" s="12">
+        <v>871</v>
+      </c>
+      <c r="I3" s="12">
+        <v>768</v>
+      </c>
+      <c r="J3" s="12">
+        <v>51</v>
+      </c>
+      <c r="K3" s="12">
+        <v>149.77000000000001</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2980</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N3" s="12">
+        <v>5</v>
+      </c>
+      <c r="O3" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="12">
+        <v>324</v>
+      </c>
+      <c r="D4" s="12">
+        <v>512</v>
+      </c>
+      <c r="E4" s="12">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12">
+        <v>275</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3050</v>
+      </c>
+      <c r="H4" s="12">
+        <v>810</v>
+      </c>
+      <c r="I4" s="12">
+        <v>934</v>
+      </c>
+      <c r="J4" s="12">
+        <v>57</v>
+      </c>
+      <c r="K4" s="12">
+        <v>144.65</v>
+      </c>
+      <c r="L4" s="12">
+        <v>3192</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N4" s="12">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="12">
+        <v>305</v>
+      </c>
+      <c r="D5" s="12">
+        <v>512</v>
+      </c>
+      <c r="E5" s="12">
+        <v>28</v>
+      </c>
+      <c r="F5" s="12">
+        <v>270</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2826</v>
+      </c>
+      <c r="H5" s="12">
+        <v>929</v>
+      </c>
+      <c r="I5" s="12">
+        <v>623</v>
+      </c>
+      <c r="J5" s="12">
+        <v>85</v>
+      </c>
+      <c r="K5" s="12">
+        <v>143.29</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4708</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N5" s="12">
+        <v>9</v>
+      </c>
+      <c r="O5" s="12">
+        <v>78</v>
+      </c>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="12">
+        <v>309</v>
+      </c>
+      <c r="D6" s="12">
+        <v>498</v>
+      </c>
+      <c r="E6" s="12">
+        <v>103</v>
+      </c>
+      <c r="F6" s="12">
+        <v>232</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2771</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1121</v>
+      </c>
+      <c r="I6" s="12">
+        <v>822</v>
+      </c>
+      <c r="J6" s="12">
+        <v>62</v>
+      </c>
+      <c r="K6" s="12">
+        <v>147.62</v>
+      </c>
+      <c r="L6" s="12">
+        <v>3278</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="N6" s="12">
+        <v>7</v>
+      </c>
+      <c r="O6" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="12">
+        <v>284</v>
+      </c>
+      <c r="D7" s="12">
+        <v>498</v>
+      </c>
+      <c r="E7" s="12">
+        <v>111</v>
+      </c>
+      <c r="F7" s="12">
+        <v>231</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2628</v>
+      </c>
+      <c r="H7" s="12">
+        <v>725</v>
+      </c>
+      <c r="I7" s="12">
+        <v>702</v>
+      </c>
+      <c r="J7" s="12">
+        <v>76</v>
+      </c>
+      <c r="K7" s="12">
+        <v>145.16</v>
+      </c>
+      <c r="L7" s="12">
+        <v>4021</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N7" s="12">
+        <v>9</v>
+      </c>
+      <c r="O7" s="12">
+        <v>65</v>
+      </c>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C8" s="12">
         <v>255</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D8" s="12">
         <v>480</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E8" s="12">
         <v>125</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F8" s="12">
         <v>209</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G8" s="12">
         <v>2771</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H8" s="12">
         <v>1407</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I8" s="12">
         <v>962</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J8" s="12">
         <v>67</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K8" s="12">
         <v>138.27000000000001</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L8" s="12">
         <v>3314</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M8" s="12">
         <v>0.92200000000000004</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N8" s="12">
         <v>9</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O8" s="12">
         <v>80</v>
       </c>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C9" s="12">
         <v>304</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D9" s="12">
         <v>472</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E9" s="12">
         <v>101</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F9" s="12">
         <v>237</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G9" s="12">
         <v>2843</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H9" s="12">
         <v>1343</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I9" s="12">
         <v>766</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J9" s="12">
         <v>60</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K9" s="12">
         <v>142.52000000000001</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L9" s="12">
         <v>3346</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M9" s="12">
         <v>0.91800000000000004</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N9" s="12">
         <v>7</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O9" s="12">
         <v>74</v>
       </c>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="12">
+        <v>282</v>
+      </c>
+      <c r="D10" s="12">
+        <v>448</v>
+      </c>
+      <c r="E10" s="12">
+        <v>90</v>
+      </c>
+      <c r="F10" s="12">
+        <v>200</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2503</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1064</v>
+      </c>
+      <c r="I10" s="12">
+        <v>774</v>
+      </c>
+      <c r="J10" s="12">
+        <v>84</v>
+      </c>
+      <c r="K10" s="12">
+        <v>148.38999999999999</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4720</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N10" s="12">
+        <v>9</v>
+      </c>
+      <c r="O10" s="12">
+        <v>54.5</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="12">
+        <v>282</v>
+      </c>
+      <c r="D11" s="12">
+        <v>445</v>
+      </c>
+      <c r="E11" s="12">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12">
+        <v>230</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2391</v>
+      </c>
+      <c r="H11" s="12">
+        <v>619</v>
+      </c>
+      <c r="I11" s="12">
+        <v>545</v>
+      </c>
+      <c r="J11" s="12">
+        <v>97</v>
+      </c>
+      <c r="K11" s="12">
+        <v>143.1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>5027</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N11" s="12">
+        <v>11</v>
+      </c>
+      <c r="O11" s="12">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="12">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12">
+        <v>7</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>6</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>4</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5</v>
+      </c>
+      <c r="I16" s="12">
+        <v>9</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>4</v>
+      </c>
+      <c r="L16" s="12">
+        <v>3</v>
+      </c>
+      <c r="M16" s="12">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>5</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12">
+        <v>8</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>8</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>8</v>
+      </c>
+      <c r="K18" s="12">
+        <v>5</v>
+      </c>
+      <c r="L18" s="12">
+        <v>8</v>
+      </c>
+      <c r="M18" s="12">
+        <v>5</v>
+      </c>
+      <c r="N18" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="13">
-        <v>309</v>
-      </c>
-      <c r="D4" s="13">
-        <v>498</v>
-      </c>
-      <c r="E4" s="13">
-        <v>103</v>
-      </c>
-      <c r="F4" s="13">
-        <v>232</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2771</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1121</v>
-      </c>
-      <c r="I4" s="13">
-        <v>822</v>
-      </c>
-      <c r="J4" s="13">
-        <v>62</v>
-      </c>
-      <c r="K4" s="13">
-        <v>147.62</v>
-      </c>
-      <c r="L4" s="13">
-        <v>3278</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="N4" s="13">
+      <c r="C19" s="12">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12">
+        <v>3</v>
+      </c>
+      <c r="J19" s="12">
+        <v>6</v>
+      </c>
+      <c r="K19" s="12">
+        <v>8</v>
+      </c>
+      <c r="L19" s="12">
         <v>7</v>
       </c>
-      <c r="O4" s="13">
-        <v>66.5</v>
-      </c>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="M19" s="12">
+        <v>8</v>
+      </c>
+      <c r="N19" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>6</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12">
+        <v>3</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="12">
+        <v>7</v>
+      </c>
+      <c r="I20" s="12">
+        <v>8</v>
+      </c>
+      <c r="J20" s="12">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="K20" s="12">
+        <v>7</v>
+      </c>
+      <c r="L20" s="12">
+        <v>9</v>
+      </c>
+      <c r="M20" s="12">
+        <v>7</v>
+      </c>
+      <c r="N20" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>7</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="12">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>6</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12">
+        <v>8</v>
+      </c>
+      <c r="H21" s="12">
+        <v>9</v>
+      </c>
+      <c r="I21" s="12">
+        <v>7</v>
+      </c>
+      <c r="J21" s="12">
+        <v>4</v>
+      </c>
+      <c r="K21" s="12">
+        <v>6</v>
+      </c>
+      <c r="L21" s="12">
+        <v>4</v>
+      </c>
+      <c r="M21" s="12">
+        <v>6</v>
+      </c>
+      <c r="N21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12">
+        <v>10</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>3</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>9</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="13">
-        <v>282</v>
-      </c>
-      <c r="D5" s="13">
-        <v>448</v>
-      </c>
-      <c r="E5" s="13">
-        <v>90</v>
-      </c>
-      <c r="F5" s="13">
-        <v>200</v>
-      </c>
-      <c r="G5" s="13">
-        <v>2503</v>
-      </c>
-      <c r="H5" s="13">
-        <v>1064</v>
-      </c>
-      <c r="I5" s="13">
-        <v>774</v>
-      </c>
-      <c r="J5" s="13">
-        <v>84</v>
-      </c>
-      <c r="K5" s="13">
-        <v>148.38999999999999</v>
-      </c>
-      <c r="L5" s="13">
-        <v>4720</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="C23" s="12">
+        <v>8</v>
+      </c>
+      <c r="D23" s="12">
         <v>9</v>
       </c>
-      <c r="O5" s="13">
-        <v>54.5</v>
-      </c>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="E23" s="12">
+        <v>6</v>
+      </c>
+      <c r="F23" s="12">
+        <v>10</v>
+      </c>
+      <c r="G23" s="12">
+        <v>9</v>
+      </c>
+      <c r="H23" s="12">
+        <v>4</v>
+      </c>
+      <c r="I23" s="12">
+        <v>4</v>
+      </c>
+      <c r="J23" s="12">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12">
+        <v>9</v>
+      </c>
+      <c r="L23" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="13">
-        <v>305</v>
-      </c>
-      <c r="D6" s="13">
-        <v>512</v>
-      </c>
-      <c r="E6" s="13">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13">
-        <v>270</v>
-      </c>
-      <c r="G6" s="13">
-        <v>2826</v>
-      </c>
-      <c r="H6" s="13">
-        <v>929</v>
-      </c>
-      <c r="I6" s="13">
-        <v>623</v>
-      </c>
-      <c r="J6" s="13">
-        <v>85</v>
-      </c>
-      <c r="K6" s="13">
-        <v>143.29</v>
-      </c>
-      <c r="L6" s="13">
-        <v>4708</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="M23" s="12">
         <v>9</v>
       </c>
-      <c r="O6" s="13">
-        <v>78</v>
-      </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="N23" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="13">
-        <v>302</v>
-      </c>
-      <c r="D7" s="13">
-        <v>535</v>
-      </c>
-      <c r="E7" s="13">
-        <v>80</v>
-      </c>
-      <c r="F7" s="13">
-        <v>248</v>
-      </c>
-      <c r="G7" s="13">
-        <v>2785</v>
-      </c>
-      <c r="H7" s="13">
-        <v>871</v>
-      </c>
-      <c r="I7" s="13">
-        <v>768</v>
-      </c>
-      <c r="J7" s="13">
-        <v>51</v>
-      </c>
-      <c r="K7" s="13">
-        <v>149.77000000000001</v>
-      </c>
-      <c r="L7" s="13">
-        <v>2980</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="C24" s="12">
+        <v>6</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>7</v>
+      </c>
+      <c r="F24" s="12">
+        <v>4</v>
+      </c>
+      <c r="G24" s="12">
         <v>5</v>
       </c>
-      <c r="O7" s="13">
-        <v>47.5</v>
-      </c>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="H24" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="13">
-        <v>333</v>
-      </c>
-      <c r="D8" s="13">
-        <v>537</v>
-      </c>
-      <c r="E8" s="13">
-        <v>94</v>
-      </c>
-      <c r="F8" s="13">
-        <v>268</v>
-      </c>
-      <c r="G8" s="13">
-        <v>2891</v>
-      </c>
-      <c r="H8" s="13">
-        <v>841</v>
-      </c>
-      <c r="I8" s="13">
-        <v>647</v>
-      </c>
-      <c r="J8" s="13">
-        <v>55</v>
-      </c>
-      <c r="K8" s="13">
-        <v>145.41</v>
-      </c>
-      <c r="L8" s="13">
-        <v>3143</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="N8" s="13">
-        <v>7</v>
-      </c>
-      <c r="O8" s="13">
-        <v>65.5</v>
-      </c>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="13">
-        <v>324</v>
-      </c>
-      <c r="D9" s="13">
-        <v>512</v>
-      </c>
-      <c r="E9" s="13">
-        <v>58</v>
-      </c>
-      <c r="F9" s="13">
-        <v>275</v>
-      </c>
-      <c r="G9" s="13">
-        <v>3050</v>
-      </c>
-      <c r="H9" s="13">
-        <v>810</v>
-      </c>
-      <c r="I9" s="13">
-        <v>934</v>
-      </c>
-      <c r="J9" s="13">
-        <v>57</v>
-      </c>
-      <c r="K9" s="13">
-        <v>144.65</v>
-      </c>
-      <c r="L9" s="13">
-        <v>3192</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="N9" s="13">
-        <v>6</v>
-      </c>
-      <c r="O9" s="13">
-        <v>72.5</v>
-      </c>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="13">
-        <v>284</v>
-      </c>
-      <c r="D10" s="13">
-        <v>498</v>
-      </c>
-      <c r="E10" s="13">
-        <v>111</v>
-      </c>
-      <c r="F10" s="13">
-        <v>231</v>
-      </c>
-      <c r="G10" s="13">
-        <v>2628</v>
-      </c>
-      <c r="H10" s="13">
-        <v>725</v>
-      </c>
-      <c r="I10" s="13">
-        <v>702</v>
-      </c>
-      <c r="J10" s="13">
-        <v>76</v>
-      </c>
-      <c r="K10" s="13">
-        <v>145.16</v>
-      </c>
-      <c r="L10" s="13">
-        <v>4021</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="N10" s="13">
-        <v>9</v>
-      </c>
-      <c r="O10" s="13">
-        <v>65</v>
-      </c>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="13">
-        <v>282</v>
-      </c>
-      <c r="D11" s="13">
-        <v>445</v>
-      </c>
-      <c r="E11" s="13">
-        <v>46</v>
-      </c>
-      <c r="F11" s="13">
-        <v>230</v>
-      </c>
-      <c r="G11" s="13">
-        <v>2391</v>
-      </c>
-      <c r="H11" s="13">
-        <v>619</v>
-      </c>
-      <c r="I11" s="13">
-        <v>545</v>
-      </c>
-      <c r="J11" s="13">
-        <v>97</v>
-      </c>
-      <c r="K11" s="13">
-        <v>143.1</v>
-      </c>
-      <c r="L11" s="13">
-        <v>5027</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="N11" s="13">
-        <v>11</v>
-      </c>
-      <c r="O11" s="13">
-        <v>56.5</v>
+      <c r="I24" s="12">
+        <v>5</v>
+      </c>
+      <c r="J24" s="12">
+        <v>10</v>
+      </c>
+      <c r="K24" s="12">
+        <v>10</v>
+      </c>
+      <c r="L24" s="12">
+        <v>10</v>
+      </c>
+      <c r="M24" s="12">
+        <v>10</v>
+      </c>
+      <c r="N24" s="12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>